--- a/biology/Histoire de la zoologie et de la botanique/Mitsuaki_Iwagō/Mitsuaki_Iwagō.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Mitsuaki_Iwagō/Mitsuaki_Iwagō.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mitsuaki_Iwag%C5%8D</t>
+          <t>Mitsuaki_Iwagō</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mitsuaki Iwagō (岩合 光昭, Iwagō Mitsuaki?, né le 27 novembre 1950 à Tokyo) est un éminent photographe et réalisateur japonais de la nature[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mitsuaki Iwagō (岩合 光昭, Iwagō Mitsuaki?, né le 27 novembre 1950 à Tokyo) est un éminent photographe et réalisateur japonais de la nature,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mitsuaki_Iwag%C5%8D</t>
+          <t>Mitsuaki_Iwagō</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Tokumitsu Iwagō, lui-même photographe animalier noté. Après avoir achevé ses études à l'université Hōsei, Iwago accompagne son père comme assistant aux îles Galápagos, où il décide de devenir photographe. Son album Letters from the Sea (海からの手紙?), Umi kara no tegami) remporte le prix Ihei Kimura en 1979. Il est également le premier photographe japonais dont les travaux sont deux fois publiés en couverture du National Geographic (mai 1986 et décembre 1994). Il est à présent porte-parole pour Olympus Corporation.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mitsuaki_Iwag%C5%8D</t>
+          <t>Mitsuaki_Iwagō</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Serengeti: Natural Order on the African Plain. Chronicle Books, 1987.  (ISBN 0-87701-441-8).
 In the Lion's Den. Chronicle Books, 1996.  (ISBN 0-8118-1203-0).
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mitsuaki_Iwag%C5%8D</t>
+          <t>Mitsuaki_Iwagō</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2019 : Neko to jiichan (ねことじいちゃん?)</t>
         </is>
